--- a/InvoiceData.xlsx
+++ b/InvoiceData.xlsx
@@ -1,77 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuli\DEV\Robots\InvoiceRobot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFCF15B-2784-481A-BED4-FE6BF802A353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A5AF4F15-6750-488A-8AB2-CF49A463F1EF}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Taul1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Taul1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
-  <si>
-    <t>Kuukausi</t>
-  </si>
-  <si>
-    <t>laskun summa</t>
-  </si>
-  <si>
-    <t>Robotti</t>
-  </si>
-  <si>
-    <t>Ihmistarkistus</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -104,29 +62,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -426,181 +447,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1FD67C-FC4F-4044-93D2-BB90FBDDB2D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Kuukausi</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>laskun summa</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Robotti</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Ihmistarkistus</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="4" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="4" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>344.8</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B4" s="4" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B5" s="4" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>344.8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>344.8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>344.8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>344.8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B6" s="4" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>344.8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B7" s="4" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>344.8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B8" s="4" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>344.8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B9" s="4" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>344.8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B10" s="4" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B11" s="5" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/InvoiceData.xlsx
+++ b/InvoiceData.xlsx
@@ -455,7 +455,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -648,19 +648,9 @@
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">

--- a/InvoiceData.xlsx
+++ b/InvoiceData.xlsx
@@ -1,35 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuli\DEV\Robots\InvoiceRobot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D606EE05-3480-424C-B56F-6C2A0DDBC953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Taul1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Taul1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+  <si>
+    <t>Kuukausi</t>
+  </si>
+  <si>
+    <t>laskun summa</t>
+  </si>
+  <si>
+    <t>Robotti</t>
+  </si>
+  <si>
+    <t>Ihmistarkistus</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,91 +92,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -447,229 +417,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Kuukausi</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>laskun summa</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Robotti</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Ihmistarkistus</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>334.8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>334.8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>334.8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>334.8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>334.8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="B7" s="4">
+        <v>334.8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B8" s="4">
+        <v>334.8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="B9" s="4">
+        <v>334.8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/InvoiceData.xlsx
+++ b/InvoiceData.xlsx
@@ -1,64 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuli\DEV\Robots\InvoiceRobot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D606EE05-3480-424C-B56F-6C2A0DDBC953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Taul1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Taul1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
-  <si>
-    <t>Kuukausi</t>
-  </si>
-  <si>
-    <t>laskun summa</t>
-  </si>
-  <si>
-    <t>Robotti</t>
-  </si>
-  <si>
-    <t>Ihmistarkistus</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -92,32 +63,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,175 +447,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Kuukausi</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>laskun summa</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Robotti</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Ihmistarkistus</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="4" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="4" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>334.8</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B4" s="4" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B5" s="4" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>334.8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>334.8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>334.8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>334.8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B6" s="4" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>334.8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B7" s="4" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>334.8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B8" s="4" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>334.8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B9" s="4" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B10" s="4" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>